--- a/GUATEMALA/Indígenas/Indicadores sociodemo poblaciones y PI-CELADE/Número de habitantes-Indígena Guatemala.xlsx
+++ b/GUATEMALA/Indígenas/Indicadores sociodemo poblaciones y PI-CELADE/Número de habitantes-Indígena Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Indígenas\Indicadores sociodemo poblaciones y PI-CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB88DEAB-19D9-4042-8EEF-B88447FD2999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0027C879-A934-4768-9092-12A86DDBCA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
